--- a/medicine/Psychotrope/Scapa_(distillerie)/Scapa_(distillerie).xlsx
+++ b/medicine/Psychotrope/Scapa_(distillerie)/Scapa_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Scapa est une distillerie de whisky située sur l'île principale des Orcades sur la côte nord de l'Écosse près de la ville de Kirkwall. La distillerie se trouve en bordure de la baie de Scapa Flow et n'échappa que de justesse à un incendie lors de la Première Guerre mondiale.
@@ -516,7 +528,9 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Embouteillage officiel :
 Scapa 16 ans 40 %
@@ -552,7 +566,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisky Magazine n°18 (janvier 2007)
 Site Web de la distillerie
